--- a/src/test/resources/agent_registration.xlsx
+++ b/src/test/resources/agent_registration.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>test data 1</t>
   </si>
